--- a/data/trans_dic/P45C_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,9; 17,27</t>
+          <t>8,48; 16,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,14; 24,64</t>
+          <t>15,09; 24,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 19,49</t>
+          <t>10,49; 19,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,75; 19,11</t>
+          <t>10,93; 18,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,57; 16,65</t>
+          <t>10,59; 16,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,15; 20,36</t>
+          <t>14,17; 20,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,06; 27,95</t>
+          <t>20,7; 28,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,1; 15,13</t>
+          <t>9,36; 15,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 16,03</t>
+          <t>10,06; 16,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,6; 23,58</t>
+          <t>16,77; 23,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,65; 12,83</t>
+          <t>7,63; 13,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,57; 17,91</t>
+          <t>11,88; 18,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,17; 24,8</t>
+          <t>19,47; 25,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,27; 13,48</t>
+          <t>8,95; 13,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,6; 15,89</t>
+          <t>11,68; 16,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,24; 16,6</t>
+          <t>9,35; 16,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,2; 35,33</t>
+          <t>24,94; 35,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,29; 12,49</t>
+          <t>6,2; 12,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,33; 15,27</t>
+          <t>8,37; 14,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,95; 21,13</t>
+          <t>12,64; 21,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,23; 16,43</t>
+          <t>9,41; 16,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,72; 14,52</t>
+          <t>9,71; 14,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,92; 26,53</t>
+          <t>20,0; 26,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,52; 13,29</t>
+          <t>8,46; 13,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,71; 26,96</t>
+          <t>17,97; 27,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,3; 17,91</t>
+          <t>12,15; 17,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,4; 17,86</t>
+          <t>10,18; 17,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,58; 16,24</t>
+          <t>9,73; 16,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,1; 12,9</t>
+          <t>8,17; 13,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,45; 15,14</t>
+          <t>8,53; 14,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,21; 20,67</t>
+          <t>15,1; 20,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,99; 15,1</t>
+          <t>10,87; 14,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,32; 15,08</t>
+          <t>10,29; 15,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,05; 9,4</t>
+          <t>3,04; 9,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,95; 15,4</t>
+          <t>7,18; 15,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 6,77</t>
+          <t>1,35; 6,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,73; 10,08</t>
+          <t>3,72; 10,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 15,72</t>
+          <t>7,19; 16,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,91</t>
+          <t>0,0; 1,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,78</t>
+          <t>4,08; 8,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,47; 14,01</t>
+          <t>8,53; 14,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,79</t>
+          <t>0,83; 3,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,04; 30,79</t>
+          <t>20,36; 31,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,19; 38,81</t>
+          <t>27,89; 39,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,7</t>
+          <t>0,78; 4,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,77; 21,21</t>
+          <t>12,12; 21,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,39; 28,83</t>
+          <t>18,06; 28,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,2; 6,95</t>
+          <t>1,98; 6,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,39; 24,7</t>
+          <t>17,8; 24,72</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,07; 31,77</t>
+          <t>24,71; 31,89</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,91</t>
+          <t>1,92; 5,05</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,27; 15,94</t>
+          <t>10,71; 16,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,5; 29,22</t>
+          <t>22,09; 29,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,61; 17,63</t>
+          <t>11,55; 18,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,69; 12,43</t>
+          <t>7,63; 12,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,65; 24,96</t>
+          <t>18,55; 24,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,61; 19,01</t>
+          <t>13,42; 19,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,76; 13,44</t>
+          <t>9,71; 13,26</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>21,17; 25,98</t>
+          <t>21,18; 25,96</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,26; 17,35</t>
+          <t>13,37; 17,59</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,67; 13,12</t>
+          <t>8,64; 13,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,87; 9,63</t>
+          <t>5,74; 9,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,07; 22,26</t>
+          <t>15,9; 21,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,59; 11,71</t>
+          <t>7,51; 11,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,23</t>
+          <t>5,54; 9,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,51; 21,16</t>
+          <t>15,98; 21,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,55; 11,72</t>
+          <t>8,55; 11,47</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6,26; 8,92</t>
+          <t>6,15; 8,83</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>16,87; 20,83</t>
+          <t>16,87; 20,95</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,53; 17,12</t>
+          <t>14,44; 16,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,4; 18,88</t>
+          <t>16,29; 18,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,32; 14,66</t>
+          <t>12,26; 14,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>11,35; 13,5</t>
+          <t>11,38; 13,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,34; 14,59</t>
+          <t>12,42; 14,72</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>12,46; 14,7</t>
+          <t>12,44; 14,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>13,11; 14,92</t>
+          <t>13,23; 14,96</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>14,66; 16,37</t>
+          <t>14,66; 16,34</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>12,66; 14,38</t>
+          <t>12,76; 14,34</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P45C_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,48; 16,79</t>
+          <t>9,0; 16,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,09; 24,82</t>
+          <t>15,17; 25,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,49; 19,18</t>
+          <t>10,56; 19,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,93; 18,94</t>
+          <t>10,95; 18,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,59; 16,56</t>
+          <t>10,9; 16,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,17; 20,69</t>
+          <t>13,75; 20,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,68</t>
+          <t>0,0; 0,46</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,7; 28,62</t>
+          <t>20,35; 27,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,36; 15,47</t>
+          <t>9,43; 15,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,06; 16,15</t>
+          <t>10,1; 16,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,73; 22,19</t>
+          <t>13,26; 21,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,77; 23,7</t>
+          <t>16,82; 24,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,63; 13,03</t>
+          <t>7,34; 12,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,88; 18,06</t>
+          <t>11,94; 18,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,92; 19,12</t>
+          <t>12,78; 18,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,47; 25,02</t>
+          <t>19,47; 24,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,95; 13,0</t>
+          <t>9,23; 13,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,68; 16,15</t>
+          <t>11,55; 16,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,9; 19,1</t>
+          <t>14,0; 19,11</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,35; 16,7</t>
+          <t>9,21; 16,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,94; 35,35</t>
+          <t>25,31; 35,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,2; 12,59</t>
+          <t>6,37; 12,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 9,41</t>
+          <t>3,8; 9,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,37; 14,92</t>
+          <t>8,67; 15,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,64; 21,26</t>
+          <t>13,01; 21,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,41; 16,64</t>
+          <t>9,15; 16,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,18; 10,57</t>
+          <t>5,19; 10,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,71; 14,82</t>
+          <t>9,68; 14,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,0; 26,7</t>
+          <t>19,83; 26,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,46; 13,35</t>
+          <t>8,72; 13,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,09</t>
+          <t>5,41; 9,19</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,97; 27,01</t>
+          <t>18,71; 27,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,15; 17,94</t>
+          <t>12,18; 17,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,18; 17,83</t>
+          <t>10,59; 17,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,29; 20,06</t>
+          <t>8,97; 19,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,73; 16,24</t>
+          <t>9,48; 16,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,17; 13,14</t>
+          <t>8,14; 12,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,53; 14,91</t>
+          <t>8,23; 15,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,87; 13,59</t>
+          <t>7,88; 13,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,1; 20,87</t>
+          <t>14,86; 20,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,87; 14,56</t>
+          <t>11,05; 14,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,29; 15,03</t>
+          <t>10,42; 15,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,48; 14,94</t>
+          <t>9,36; 15,25</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,04; 9,44</t>
+          <t>2,98; 9,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,18; 15,63</t>
+          <t>7,16; 15,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,35; 6,56</t>
+          <t>1,36; 6,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,04; 9,33</t>
+          <t>3,09; 9,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,72; 10,32</t>
+          <t>3,82; 10,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,19; 16,12</t>
+          <t>6,98; 15,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,99</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,8</t>
+          <t>2,18; 7,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,08; 8,81</t>
+          <t>4,03; 8,5</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,53; 14,65</t>
+          <t>8,3; 14,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,44</t>
+          <t>0,84; 3,71</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,29; 7,33</t>
+          <t>3,17; 7,44</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,36; 31,24</t>
+          <t>20,1; 31,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,89; 39,08</t>
+          <t>27,86; 39,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,61</t>
+          <t>0,78; 4,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,47; 27,45</t>
+          <t>18,05; 27,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,12; 21,15</t>
+          <t>12,4; 21,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,06; 28,19</t>
+          <t>18,43; 29,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,81</t>
+          <t>2,16; 6,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,85; 33,73</t>
+          <t>25,03; 34,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,8; 24,72</t>
+          <t>17,54; 24,48</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,71; 31,89</t>
+          <t>24,61; 31,98</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,05</t>
+          <t>2,0; 5,15</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,89; 29,65</t>
+          <t>23,01; 29,28</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,71; 16,31</t>
+          <t>10,27; 15,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,09; 29,17</t>
+          <t>22,29; 29,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,55; 18,15</t>
+          <t>11,73; 17,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,31; 17,17</t>
+          <t>10,54; 17,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,63; 12,25</t>
+          <t>7,6; 12,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,55; 24,65</t>
+          <t>18,55; 24,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,42; 19,31</t>
+          <t>13,36; 19,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,86; 14,76</t>
+          <t>7,18; 14,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,71; 13,26</t>
+          <t>9,8; 13,43</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>21,18; 25,96</t>
+          <t>21,36; 25,95</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,37; 17,59</t>
+          <t>13,33; 17,42</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,48; 14,78</t>
+          <t>9,4; 14,84</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,64; 13,26</t>
+          <t>8,48; 12,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,74; 9,7</t>
+          <t>5,62; 9,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,9; 21,82</t>
+          <t>16,45; 22,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,73; 34,89</t>
+          <t>24,13; 34,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,51; 11,66</t>
+          <t>7,41; 12,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,54; 9,24</t>
+          <t>5,54; 9,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,98; 21,59</t>
+          <t>16,03; 21,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,93; 20,98</t>
+          <t>15,97; 21,09</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,55; 11,47</t>
+          <t>8,5; 11,57</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,83</t>
+          <t>6,27; 8,91</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>16,87; 20,95</t>
+          <t>16,66; 20,68</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>21,64; 26,93</t>
+          <t>21,67; 26,85</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,44; 16,98</t>
+          <t>14,45; 17,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,29; 18,99</t>
+          <t>16,22; 18,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,26; 14,69</t>
+          <t>12,24; 14,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,36; 18,53</t>
+          <t>15,29; 18,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>11,38; 13,69</t>
+          <t>11,29; 13,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,42; 14,72</t>
+          <t>12,43; 14,68</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>12,44; 14,68</t>
+          <t>12,43; 14,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,58; 14,37</t>
+          <t>11,89; 14,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>13,23; 14,96</t>
+          <t>13,26; 14,89</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>14,66; 16,34</t>
+          <t>14,62; 16,35</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>12,76; 14,34</t>
+          <t>12,73; 14,4</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>13,81; 15,92</t>
+          <t>13,92; 15,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P45C_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,01; 23,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,45; 18,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,95</t>
+          <t>0,0; 0,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,89; 19,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,46</t>
+          <t>0,0; 0,42</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>16,67%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,26; 21,88</t>
+          <t>13,36; 22,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,78; 18,99</t>
+          <t>12,85; 19,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,0; 19,11</t>
+          <t>14,09; 19,54</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>7,0%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 9,64</t>
+          <t>3,81; 9,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,19; 10,91</t>
+          <t>5,24; 11,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,41; 9,19</t>
+          <t>5,43; 9,26</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>11,23%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,18; 17,99</t>
+          <t>9,05; 16,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,97; 19,66</t>
+          <t>9,52; 22,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,14; 12,99</t>
+          <t>5,47; 11,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,88; 13,61</t>
+          <t>5,13; 12,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,05; 14,58</t>
+          <t>7,99; 12,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,36; 15,25</t>
+          <t>7,77; 15,33</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,77%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 9,14</t>
+          <t>3,12; 9,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 7,99</t>
+          <t>2,18; 7,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,44</t>
+          <t>3,17; 7,2</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>29,31%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>25,79%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,05; 27,74</t>
+          <t>18,12; 27,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,03; 34,44</t>
+          <t>25,08; 34,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>23,01; 29,28</t>
+          <t>22,93; 29,24</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>11,51%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,54; 17,23</t>
+          <t>10,48; 17,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,18; 14,81</t>
+          <t>5,09; 14,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,4; 14,84</t>
+          <t>7,22; 14,33</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>21,39%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,13; 34,53</t>
+          <t>11,11; 33,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,97; 21,09</t>
+          <t>15,99; 21,04</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>21,67; 26,85</t>
+          <t>13,07; 25,69</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>13,81%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,29; 18,64</t>
+          <t>11,83; 17,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,89; 14,46</t>
+          <t>10,16; 13,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>13,92; 15,95</t>
+          <t>12,02; 15,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P45C_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,0; 16,82</t>
+          <t>8,95; 16,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,01; 23,85</t>
+          <t>14,53; 23,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,17; 25,06</t>
+          <t>14,65; 24,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,49 +745,49 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,56; 19,44</t>
+          <t>10,59; 19,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,45; 18,12</t>
+          <t>9,51; 18,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,95; 18,84</t>
+          <t>10,69; 19,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,93</t>
+          <t>0,0; 0,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,9; 16,92</t>
+          <t>10,73; 16,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,89; 19,14</t>
+          <t>12,98; 19,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,75; 20,13</t>
+          <t>14,18; 20,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,42</t>
+          <t>0,0; 0,43</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,35; 27,93</t>
+          <t>20,52; 28,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,43; 15,41</t>
+          <t>9,16; 15,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,1; 16,23</t>
+          <t>10,22; 15,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,36; 22,44</t>
+          <t>13,54; 22,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,82; 24,03</t>
+          <t>16,52; 23,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,34; 12,65</t>
+          <t>7,54; 13,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,94; 18,22</t>
+          <t>11,59; 18,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,85; 19,07</t>
+          <t>12,85; 18,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,47; 24,93</t>
+          <t>19,47; 24,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 13,21</t>
+          <t>8,99; 13,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,55; 16,14</t>
+          <t>11,54; 15,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,09; 19,54</t>
+          <t>14,04; 19,61</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,21; 16,42</t>
+          <t>8,97; 16,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,31; 35,59</t>
+          <t>25,3; 35,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,37; 12,73</t>
+          <t>6,33; 12,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 9,74</t>
+          <t>4,06; 9,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,67; 15,33</t>
+          <t>8,31; 15,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,01; 21,44</t>
+          <t>12,94; 21,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,15; 16,05</t>
+          <t>9,24; 16,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 11,01</t>
+          <t>4,97; 10,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,68; 14,74</t>
+          <t>9,48; 14,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,83; 26,88</t>
+          <t>20,29; 26,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,72; 13,48</t>
+          <t>8,52; 13,42</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 9,26</t>
+          <t>5,19; 9,19</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,71; 27,41</t>
+          <t>19,29; 27,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,05; 16,27</t>
+          <t>8,97; 16,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,59; 17,93</t>
+          <t>10,19; 17,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,52; 22,8</t>
+          <t>10,03; 23,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,48; 16,12</t>
+          <t>9,47; 16,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,47; 11,62</t>
+          <t>5,79; 11,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,23; 15,04</t>
+          <t>8,58; 14,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,13; 12,35</t>
+          <t>5,41; 12,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,86; 20,49</t>
+          <t>14,97; 20,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,99; 12,83</t>
+          <t>8,06; 12,63</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,42; 15,45</t>
+          <t>10,07; 15,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,77; 15,33</t>
+          <t>8,05; 15,12</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,98; 9,79</t>
+          <t>2,96; 9,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,16; 15,65</t>
+          <t>7,2; 15,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 6,73</t>
+          <t>1,57; 6,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,12; 9,12</t>
+          <t>3,12; 9,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,82; 10,58</t>
+          <t>3,59; 9,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,98; 15,43</t>
+          <t>7,68; 15,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,0; 1,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 7,74</t>
+          <t>2,17; 7,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 8,5</t>
+          <t>4,26; 8,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,3; 14,37</t>
+          <t>8,31; 14,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,71</t>
+          <t>0,86; 3,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,2</t>
+          <t>3,08; 7,13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,1; 31,09</t>
+          <t>20,82; 31,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,86; 39,19</t>
+          <t>27,67; 38,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,63</t>
+          <t>0,77; 4,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,12; 27,68</t>
+          <t>17,75; 28,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,4; 21,29</t>
+          <t>12,58; 21,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,43; 29,03</t>
+          <t>18,69; 28,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,16; 6,72</t>
+          <t>2,16; 7,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,08; 34,5</t>
+          <t>24,21; 34,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,54; 24,48</t>
+          <t>17,61; 24,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,61; 31,98</t>
+          <t>24,49; 32,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,15</t>
+          <t>1,88; 5,01</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,93; 29,24</t>
+          <t>22,8; 29,42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,27; 15,65</t>
+          <t>10,56; 16,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,29; 29,35</t>
+          <t>22,15; 28,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,73; 17,82</t>
+          <t>11,38; 17,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,48; 17,07</t>
+          <t>10,13; 17,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,6; 12,3</t>
+          <t>7,64; 12,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,55; 24,98</t>
+          <t>18,18; 24,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,36; 19,1</t>
+          <t>13,45; 19,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,09; 14,37</t>
+          <t>4,68; 14,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,8; 13,43</t>
+          <t>9,61; 13,22</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>21,36; 25,95</t>
+          <t>21,17; 26,05</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,33; 17,42</t>
+          <t>13,23; 17,5</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,22; 14,33</t>
+          <t>7,01; 14,32</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,48; 12,97</t>
+          <t>8,4; 13,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,62; 9,76</t>
+          <t>5,87; 9,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,45; 22,27</t>
+          <t>16,42; 22,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,11; 33,37</t>
+          <t>10,58; 33,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,41; 12,01</t>
+          <t>7,26; 11,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,54; 9,1</t>
+          <t>5,62; 9,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,03; 21,48</t>
+          <t>15,74; 21,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,99; 21,04</t>
+          <t>15,53; 20,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,5; 11,57</t>
+          <t>8,56; 11,55</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6,27; 8,91</t>
+          <t>6,27; 8,85</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>16,66; 20,68</t>
+          <t>16,93; 20,83</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,07; 25,69</t>
+          <t>12,85; 25,87</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,45; 17,05</t>
+          <t>14,4; 16,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,22; 18,93</t>
+          <t>16,3; 18,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,24; 14,65</t>
+          <t>12,39; 14,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,83; 17,26</t>
+          <t>12,39; 17,27</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>11,29; 13,64</t>
+          <t>11,29; 13,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,43; 14,68</t>
+          <t>12,23; 14,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>12,43; 14,81</t>
+          <t>12,43; 14,69</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>10,16; 13,66</t>
+          <t>10,16; 13,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>13,26; 14,89</t>
+          <t>13,16; 14,92</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>14,62; 16,35</t>
+          <t>14,67; 16,4</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>12,73; 14,4</t>
+          <t>12,65; 14,43</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>12,02; 15,0</t>
+          <t>12,04; 15,0</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna quemadura solar en el último año</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>33755</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>53979</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>57434</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>38211</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>38291</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>41812</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>71966</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>92269</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>99246</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>24439; 45241</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>42835; 69928</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>43045; 72155</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1801</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>27624; 51135</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27020; 51653</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>30765; 54772</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2134</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>57261; 90201</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>75103; 113980</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>82457; 121120</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2595</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>118774</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>60279</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>63570</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>90694</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>100587</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>51000</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>76264</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>81281</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>219362</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>111279</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>139833</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>171974</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>101173; 139940</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>45656; 75919</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>50944; 78498</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>69979; 115797</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>83261; 118718</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>38695; 66974</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>60346; 94464</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>66111; 97299</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>194129; 246950</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>90965; 131712</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>117606; 162077</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>144811; 202299</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>40022</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>97595</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>28650</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19759</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>38281</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>56828</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>41397</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>26793</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>78303</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>154423</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>70047</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>46552</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>28588; 51663</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>81735; 115301</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19975; 39553</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12797; 30166</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>27872; 51277</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>43834; 71771</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>30789; 53916</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17355; 37046</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>62054; 96161</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>134303; 175365</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>55242; 87047</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>34497; 61106</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>81591</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>45517</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>50669</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>45651</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>46918</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>31427</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>43989</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>42571</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>128509</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>76944</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>94658</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>88222</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>69191; 100069</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>33059; 59756</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>37619; 65131</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>31105; 72804</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>35176; 60774</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>22205; 44542</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>33070; 57298</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>25733; 57984</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>109313; 150271</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>60636; 95057</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>75934; 113467</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>63302; 118848</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>11393</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>22986</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7217</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9838</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13474</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>24290</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8614</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24867</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>47276</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>18452</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6012; 20277</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15299; 33840</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3315; 14220</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5579; 16922</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7462; 20735</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>16781; 34148</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4161</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4517; 15005</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>17521; 35427</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>35817; 60785</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3684; 16188</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>11935; 27611</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>69194</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>90247</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6008</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>60279</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>45743</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>64995</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11033</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>75354</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>114936</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>155242</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>17041</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>135633</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>56375; 86120</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>75275; 105903</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2023; 12126</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>47711; 75560</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>34991; 58762</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>52329; 80432</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>5865; 19148</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>62225; 87452</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>96693; 133568</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>135201; 178364</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>10029; 26774</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>119911; 154725</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>80190</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>169028</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>92646</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>84330</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>62607</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>148852</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>109643</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>85055</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>142797</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>317881</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>202289</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>169384</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>64967; 99331</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>146137; 190360</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>73307; 111475</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>63022; 105825</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>48697; 78446</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>125558; 170181</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>91113; 130296</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>39724; 119795</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>120310; 165569</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>285913; 351750</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>174795; 231293</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>103074; 210754</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>78549</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>58275</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>146960</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>221466</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>73121</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>59006</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>152481</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>130263</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>151670</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>117281</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>299441</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>351729</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>61868; 97508</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>45191; 73670</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>126636; 170133</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>98273; 311227</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>56386; 90668</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>45758; 76055</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>129518; 174595</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>111204; 148353</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>129531; 174662</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>99365; 140177</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>269897; 331985</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>211272; 425419</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1031</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>513467</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>597905</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>453154</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>532017</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>418942</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>474690</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>477446</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>450443</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>932409</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1072595</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>930600</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>982460</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>470835; 553488</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>553901; 642646</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>417035; 500918</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>427918; 596289</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>380482; 456084</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>430882; 516401</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>437175; 516935</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>371769; 501114</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>873613; 990516</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1015275; 1135391</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>870594; 993009</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>856184; 1066815</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P45C_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Provincia-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1967,7 +1967,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
